--- a/resultsEST300-399.xlsx
+++ b/resultsEST300-399.xlsx
@@ -4661,10 +4661,10 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>10336</v>
+        <v>7875</v>
       </c>
       <c r="C302" t="n">
-        <v>13.26190280914307</v>
+        <v>7.914174795150757</v>
       </c>
       <c r="D302" t="n">
         <v>1</v>
@@ -4675,10 +4675,10 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>2862</v>
+        <v>1992</v>
       </c>
       <c r="C303" t="n">
-        <v>1.992526769638062</v>
+        <v>1.177507400512695</v>
       </c>
       <c r="D303" t="n">
         <v>1</v>
@@ -4689,10 +4689,10 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>6796</v>
+        <v>2325</v>
       </c>
       <c r="C304" t="n">
-        <v>7.911578178405762</v>
+        <v>1.252694129943848</v>
       </c>
       <c r="D304" t="n">
         <v>1</v>
@@ -4703,10 +4703,10 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>3329</v>
+        <v>1545</v>
       </c>
       <c r="C305" t="n">
-        <v>2.860090255737305</v>
+        <v>0.6562430858612061</v>
       </c>
       <c r="D305" t="n">
         <v>1</v>
@@ -4717,10 +4717,10 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>13958</v>
+        <v>6373</v>
       </c>
       <c r="C306" t="n">
-        <v>22.28809213638306</v>
+        <v>6.542188882827759</v>
       </c>
       <c r="D306" t="n">
         <v>1</v>
@@ -4731,10 +4731,10 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>5056</v>
+        <v>1395</v>
       </c>
       <c r="C307" t="n">
-        <v>4.744289636611938</v>
+        <v>0.5318694114685059</v>
       </c>
       <c r="D307" t="n">
         <v>1</v>
@@ -4745,10 +4745,10 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>3622</v>
+        <v>2483</v>
       </c>
       <c r="C308" t="n">
-        <v>3.351835250854492</v>
+        <v>1.53418493270874</v>
       </c>
       <c r="D308" t="n">
         <v>1</v>
@@ -4759,10 +4759,10 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>7520</v>
+        <v>8012</v>
       </c>
       <c r="C309" t="n">
-        <v>6.308816909790039</v>
+        <v>7.217840433120728</v>
       </c>
       <c r="D309" t="n">
         <v>1</v>
@@ -4773,13 +4773,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>24498</v>
+        <v>991</v>
       </c>
       <c r="C310" t="n">
-        <v>60.00152277946472</v>
+        <v>0.3791201114654541</v>
       </c>
       <c r="D310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -4787,10 +4787,10 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>10789</v>
+        <v>3278</v>
       </c>
       <c r="C311" t="n">
-        <v>16.2242705821991</v>
+        <v>2.209597826004028</v>
       </c>
       <c r="D311" t="n">
         <v>1</v>
@@ -4801,10 +4801,10 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>9463</v>
+        <v>5043</v>
       </c>
       <c r="C312" t="n">
-        <v>12.96284127235413</v>
+        <v>3.890109062194824</v>
       </c>
       <c r="D312" t="n">
         <v>1</v>
@@ -4815,10 +4815,10 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>7366</v>
+        <v>15349</v>
       </c>
       <c r="C313" t="n">
-        <v>7.726166486740112</v>
+        <v>21.41181588172913</v>
       </c>
       <c r="D313" t="n">
         <v>1</v>
@@ -4829,10 +4829,10 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>6172</v>
+        <v>4893</v>
       </c>
       <c r="C314" t="n">
-        <v>7.166380167007446</v>
+        <v>3.987114191055298</v>
       </c>
       <c r="D314" t="n">
         <v>1</v>
@@ -4843,10 +4843,10 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>6333</v>
+        <v>10091</v>
       </c>
       <c r="C315" t="n">
-        <v>7.106782197952271</v>
+        <v>10.00911092758179</v>
       </c>
       <c r="D315" t="n">
         <v>1</v>
@@ -4857,10 +4857,10 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>17749</v>
+        <v>11580</v>
       </c>
       <c r="C316" t="n">
-        <v>32.71603679656982</v>
+        <v>13.57191133499146</v>
       </c>
       <c r="D316" t="n">
         <v>1</v>
@@ -4871,10 +4871,10 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>6994</v>
+        <v>8226</v>
       </c>
       <c r="C317" t="n">
-        <v>7.377294301986694</v>
+        <v>8.061393976211548</v>
       </c>
       <c r="D317" t="n">
         <v>1</v>
@@ -4885,10 +4885,10 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>4147</v>
+        <v>13535</v>
       </c>
       <c r="C318" t="n">
-        <v>3.961569786071777</v>
+        <v>20.2875030040741</v>
       </c>
       <c r="D318" t="n">
         <v>1</v>
@@ -4899,10 +4899,10 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>23617</v>
+        <v>7497</v>
       </c>
       <c r="C319" t="n">
-        <v>56.88000297546387</v>
+        <v>6.624865770339966</v>
       </c>
       <c r="D319" t="n">
         <v>1</v>
@@ -4913,10 +4913,10 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>7882</v>
+        <v>8761</v>
       </c>
       <c r="C320" t="n">
-        <v>9.939781904220581</v>
+        <v>8.537094831466675</v>
       </c>
       <c r="D320" t="n">
         <v>1</v>
@@ -4927,10 +4927,10 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>22603</v>
+        <v>14242</v>
       </c>
       <c r="C321" t="n">
-        <v>55.44382476806641</v>
+        <v>21.55966925621033</v>
       </c>
       <c r="D321" t="n">
         <v>1</v>
@@ -4941,10 +4941,10 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>9764</v>
+        <v>2234</v>
       </c>
       <c r="C322" t="n">
-        <v>12.48054170608521</v>
+        <v>1.146967649459839</v>
       </c>
       <c r="D322" t="n">
         <v>1</v>
@@ -4955,10 +4955,10 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>5054</v>
+        <v>5640</v>
       </c>
       <c r="C323" t="n">
-        <v>5.207441568374634</v>
+        <v>3.964053153991699</v>
       </c>
       <c r="D323" t="n">
         <v>1</v>
@@ -4969,10 +4969,10 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>18362</v>
+        <v>2687</v>
       </c>
       <c r="C324" t="n">
-        <v>39.59755325317383</v>
+        <v>1.48234224319458</v>
       </c>
       <c r="D324" t="n">
         <v>1</v>
@@ -4983,13 +4983,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>24006</v>
+        <v>8255</v>
       </c>
       <c r="C325" t="n">
-        <v>60.001540184021</v>
+        <v>7.792657852172852</v>
       </c>
       <c r="D325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -4997,10 +4997,10 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>22226</v>
+        <v>7685</v>
       </c>
       <c r="C326" t="n">
-        <v>54.51061606407166</v>
+        <v>7.290755748748779</v>
       </c>
       <c r="D326" t="n">
         <v>1</v>
@@ -5011,10 +5011,10 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>708</v>
+        <v>2654</v>
       </c>
       <c r="C327" t="n">
-        <v>0.4575417041778564</v>
+        <v>1.493052959442139</v>
       </c>
       <c r="D327" t="n">
         <v>1</v>
@@ -5025,10 +5025,10 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>7402</v>
+        <v>1177</v>
       </c>
       <c r="C328" t="n">
-        <v>8.844721555709839</v>
+        <v>0.5514485836029053</v>
       </c>
       <c r="D328" t="n">
         <v>1</v>
@@ -5039,10 +5039,10 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>14568</v>
+        <v>10092</v>
       </c>
       <c r="C329" t="n">
-        <v>23.84878778457642</v>
+        <v>10.46492910385132</v>
       </c>
       <c r="D329" t="n">
         <v>1</v>
@@ -5053,10 +5053,10 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>9126</v>
+        <v>109</v>
       </c>
       <c r="C330" t="n">
-        <v>12.49270629882812</v>
+        <v>0.04421353340148926</v>
       </c>
       <c r="D330" t="n">
         <v>1</v>
@@ -5067,10 +5067,10 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>21000</v>
+        <v>3363</v>
       </c>
       <c r="C331" t="n">
-        <v>43.40246915817261</v>
+        <v>1.750082731246948</v>
       </c>
       <c r="D331" t="n">
         <v>1</v>
@@ -5081,13 +5081,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>2379</v>
+        <v>26608</v>
       </c>
       <c r="C332" t="n">
-        <v>1.918226480484009</v>
+        <v>60.00157880783081</v>
       </c>
       <c r="D332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -5095,10 +5095,10 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>3423</v>
+        <v>4802</v>
       </c>
       <c r="C333" t="n">
-        <v>3.325525999069214</v>
+        <v>3.112475156784058</v>
       </c>
       <c r="D333" t="n">
         <v>1</v>
@@ -5109,10 +5109,10 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>8382</v>
+        <v>3908</v>
       </c>
       <c r="C334" t="n">
-        <v>11.57741522789001</v>
+        <v>2.493205785751343</v>
       </c>
       <c r="D334" t="n">
         <v>1</v>
@@ -5123,10 +5123,10 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>7674</v>
+        <v>3327</v>
       </c>
       <c r="C335" t="n">
-        <v>9.483751535415649</v>
+        <v>1.775290966033936</v>
       </c>
       <c r="D335" t="n">
         <v>1</v>
@@ -5137,10 +5137,10 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>18735</v>
+        <v>1411</v>
       </c>
       <c r="C336" t="n">
-        <v>39.36328911781311</v>
+        <v>0.585538387298584</v>
       </c>
       <c r="D336" t="n">
         <v>1</v>
@@ -5151,10 +5151,10 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>13631</v>
+        <v>767</v>
       </c>
       <c r="C337" t="n">
-        <v>18.87327671051025</v>
+        <v>0.2513682842254639</v>
       </c>
       <c r="D337" t="n">
         <v>1</v>
@@ -5165,10 +5165,10 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>9595</v>
+        <v>7409</v>
       </c>
       <c r="C338" t="n">
-        <v>12.42463088035583</v>
+        <v>5.296584844589233</v>
       </c>
       <c r="D338" t="n">
         <v>1</v>
@@ -5179,10 +5179,10 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>12426</v>
+        <v>3525</v>
       </c>
       <c r="C339" t="n">
-        <v>16.98656487464905</v>
+        <v>0.8395931720733643</v>
       </c>
       <c r="D339" t="n">
         <v>1</v>
@@ -5193,10 +5193,10 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>1591</v>
+        <v>5568</v>
       </c>
       <c r="C340" t="n">
-        <v>1.356394529342651</v>
+        <v>3.829446315765381</v>
       </c>
       <c r="D340" t="n">
         <v>1</v>
@@ -5207,10 +5207,10 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>5680</v>
+        <v>5988</v>
       </c>
       <c r="C341" t="n">
-        <v>4.801986694335938</v>
+        <v>4.176910400390625</v>
       </c>
       <c r="D341" t="n">
         <v>1</v>
@@ -5221,10 +5221,10 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>13238</v>
+        <v>19066</v>
       </c>
       <c r="C342" t="n">
-        <v>19.75282907485962</v>
+        <v>35.93848395347595</v>
       </c>
       <c r="D342" t="n">
         <v>1</v>
@@ -5235,10 +5235,10 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>6389</v>
+        <v>4771</v>
       </c>
       <c r="C343" t="n">
-        <v>5.950438261032104</v>
+        <v>3.122979640960693</v>
       </c>
       <c r="D343" t="n">
         <v>1</v>
@@ -5249,10 +5249,10 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>6960</v>
+        <v>10717</v>
       </c>
       <c r="C344" t="n">
-        <v>8.234965801239014</v>
+        <v>12.06258964538574</v>
       </c>
       <c r="D344" t="n">
         <v>1</v>
@@ -5263,10 +5263,10 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>18180</v>
+        <v>1912</v>
       </c>
       <c r="C345" t="n">
-        <v>37.70363807678223</v>
+        <v>0.8826680183410645</v>
       </c>
       <c r="D345" t="n">
         <v>1</v>
@@ -5277,13 +5277,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>24238</v>
+        <v>8821</v>
       </c>
       <c r="C346" t="n">
-        <v>60.00107932090759</v>
+        <v>8.9626784324646</v>
       </c>
       <c r="D346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -5291,10 +5291,10 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>14404</v>
+        <v>8140</v>
       </c>
       <c r="C347" t="n">
-        <v>20.78922557830811</v>
+        <v>5.802713871002197</v>
       </c>
       <c r="D347" t="n">
         <v>1</v>
@@ -5305,10 +5305,10 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>7152</v>
+        <v>8334</v>
       </c>
       <c r="C348" t="n">
-        <v>8.45549750328064</v>
+        <v>7.182803630828857</v>
       </c>
       <c r="D348" t="n">
         <v>1</v>
@@ -5319,10 +5319,10 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>4478</v>
+        <v>5072</v>
       </c>
       <c r="C349" t="n">
-        <v>4.524561405181885</v>
+        <v>2.673810958862305</v>
       </c>
       <c r="D349" t="n">
         <v>1</v>
@@ -5333,10 +5333,10 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>14744</v>
+        <v>1622</v>
       </c>
       <c r="C350" t="n">
-        <v>23.97838807106018</v>
+        <v>0.7953050136566162</v>
       </c>
       <c r="D350" t="n">
         <v>1</v>
@@ -5347,10 +5347,10 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>14496</v>
+        <v>3809</v>
       </c>
       <c r="C351" t="n">
-        <v>24.01256585121155</v>
+        <v>1.570146799087524</v>
       </c>
       <c r="D351" t="n">
         <v>1</v>
@@ -5361,10 +5361,10 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>7795</v>
+        <v>2818</v>
       </c>
       <c r="C352" t="n">
-        <v>8.224863529205322</v>
+        <v>1.459342956542969</v>
       </c>
       <c r="D352" t="n">
         <v>1</v>
@@ -5375,10 +5375,10 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>12532</v>
+        <v>3726</v>
       </c>
       <c r="C353" t="n">
-        <v>20.06548261642456</v>
+        <v>2.080800533294678</v>
       </c>
       <c r="D353" t="n">
         <v>1</v>
@@ -5389,10 +5389,10 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>4621</v>
+        <v>11179</v>
       </c>
       <c r="C354" t="n">
-        <v>4.6868736743927</v>
+        <v>14.1690034866333</v>
       </c>
       <c r="D354" t="n">
         <v>1</v>
@@ -5403,10 +5403,10 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>2466</v>
+        <v>2381</v>
       </c>
       <c r="C355" t="n">
-        <v>1.209684371948242</v>
+        <v>0.9512910842895508</v>
       </c>
       <c r="D355" t="n">
         <v>1</v>
@@ -5417,13 +5417,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>24437</v>
+        <v>9612</v>
       </c>
       <c r="C356" t="n">
-        <v>60.00512599945068</v>
+        <v>10.42948961257935</v>
       </c>
       <c r="D356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -5431,10 +5431,10 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>4484</v>
+        <v>534</v>
       </c>
       <c r="C357" t="n">
-        <v>4.88541579246521</v>
+        <v>0.1820292472839355</v>
       </c>
       <c r="D357" t="n">
         <v>1</v>
@@ -5445,10 +5445,10 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>728</v>
+        <v>11967</v>
       </c>
       <c r="C358" t="n">
-        <v>0.4468023777008057</v>
+        <v>15.67616534233093</v>
       </c>
       <c r="D358" t="n">
         <v>1</v>
@@ -5459,10 +5459,10 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>24091</v>
+        <v>24782</v>
       </c>
       <c r="C359" t="n">
-        <v>60.00713872909546</v>
+        <v>60.00254464149475</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -5473,10 +5473,10 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>7412</v>
+        <v>3062</v>
       </c>
       <c r="C360" t="n">
-        <v>8.105557680130005</v>
+        <v>1.770901203155518</v>
       </c>
       <c r="D360" t="n">
         <v>1</v>
@@ -5487,10 +5487,10 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>11906</v>
+        <v>695</v>
       </c>
       <c r="C361" t="n">
-        <v>18.63762354850769</v>
+        <v>0.27638840675354</v>
       </c>
       <c r="D361" t="n">
         <v>1</v>
@@ -5501,10 +5501,10 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>22865</v>
+        <v>6960</v>
       </c>
       <c r="C362" t="n">
-        <v>55.55052852630615</v>
+        <v>6.251266717910767</v>
       </c>
       <c r="D362" t="n">
         <v>1</v>
@@ -5515,10 +5515,10 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>14571</v>
+        <v>585</v>
       </c>
       <c r="C363" t="n">
-        <v>25.14195203781128</v>
+        <v>0.1995251178741455</v>
       </c>
       <c r="D363" t="n">
         <v>1</v>
@@ -5529,10 +5529,10 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>14033</v>
+        <v>10370</v>
       </c>
       <c r="C364" t="n">
-        <v>25.1002504825592</v>
+        <v>11.73479962348938</v>
       </c>
       <c r="D364" t="n">
         <v>1</v>
@@ -5543,10 +5543,10 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>2115</v>
+        <v>2220</v>
       </c>
       <c r="C365" t="n">
-        <v>1.729116916656494</v>
+        <v>1.128860235214233</v>
       </c>
       <c r="D365" t="n">
         <v>1</v>
@@ -5557,10 +5557,10 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>1411</v>
+        <v>623</v>
       </c>
       <c r="C366" t="n">
-        <v>1.105801105499268</v>
+        <v>0.2330079078674316</v>
       </c>
       <c r="D366" t="n">
         <v>1</v>
@@ -5571,10 +5571,10 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>2948</v>
+        <v>1098</v>
       </c>
       <c r="C367" t="n">
-        <v>2.828131437301636</v>
+        <v>0.46468186378479</v>
       </c>
       <c r="D367" t="n">
         <v>1</v>
@@ -5585,10 +5585,10 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>10423</v>
+        <v>794</v>
       </c>
       <c r="C368" t="n">
-        <v>14.64437508583069</v>
+        <v>0.2882580757141113</v>
       </c>
       <c r="D368" t="n">
         <v>1</v>
@@ -5599,10 +5599,10 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>2958</v>
+        <v>4404</v>
       </c>
       <c r="C369" t="n">
-        <v>2.656647443771362</v>
+        <v>2.968374729156494</v>
       </c>
       <c r="D369" t="n">
         <v>1</v>
@@ -5613,10 +5613,10 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>4676</v>
+        <v>1041</v>
       </c>
       <c r="C370" t="n">
-        <v>4.862814664840698</v>
+        <v>0.4369630813598633</v>
       </c>
       <c r="D370" t="n">
         <v>1</v>
@@ -5627,10 +5627,10 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>3453</v>
+        <v>796</v>
       </c>
       <c r="C371" t="n">
-        <v>3.14366340637207</v>
+        <v>0.3155262470245361</v>
       </c>
       <c r="D371" t="n">
         <v>1</v>
@@ -5641,10 +5641,10 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>660</v>
+        <v>15674</v>
       </c>
       <c r="C372" t="n">
-        <v>0.4344048500061035</v>
+        <v>23.11936092376709</v>
       </c>
       <c r="D372" t="n">
         <v>1</v>
@@ -5655,13 +5655,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>28254</v>
+        <v>3125</v>
       </c>
       <c r="C373" t="n">
-        <v>60.0006160736084</v>
+        <v>1.590145111083984</v>
       </c>
       <c r="D373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -5669,10 +5669,10 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>6285</v>
+        <v>5201</v>
       </c>
       <c r="C374" t="n">
-        <v>7.058838129043579</v>
+        <v>3.744139909744263</v>
       </c>
       <c r="D374" t="n">
         <v>1</v>
@@ -5683,13 +5683,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>24490</v>
+        <v>14225</v>
       </c>
       <c r="C375" t="n">
-        <v>60.00102376937866</v>
+        <v>20.66100978851318</v>
       </c>
       <c r="D375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -5697,10 +5697,10 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>8546</v>
+        <v>199</v>
       </c>
       <c r="C376" t="n">
-        <v>11.02760171890259</v>
+        <v>0.07381200790405273</v>
       </c>
       <c r="D376" t="n">
         <v>1</v>
@@ -5711,10 +5711,10 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>10209</v>
+        <v>1514</v>
       </c>
       <c r="C377" t="n">
-        <v>15.89924573898315</v>
+        <v>0.7251045703887939</v>
       </c>
       <c r="D377" t="n">
         <v>1</v>
@@ -5725,10 +5725,10 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>13462</v>
+        <v>14134</v>
       </c>
       <c r="C378" t="n">
-        <v>22.80918455123901</v>
+        <v>20.41955208778381</v>
       </c>
       <c r="D378" t="n">
         <v>1</v>
@@ -5739,10 +5739,10 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>14036</v>
+        <v>3161</v>
       </c>
       <c r="C379" t="n">
-        <v>24.03598618507385</v>
+        <v>2.400487422943115</v>
       </c>
       <c r="D379" t="n">
         <v>1</v>
@@ -5753,10 +5753,10 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>9298</v>
+        <v>8951</v>
       </c>
       <c r="C380" t="n">
-        <v>12.29689359664917</v>
+        <v>8.994839191436768</v>
       </c>
       <c r="D380" t="n">
         <v>1</v>
@@ -5767,10 +5767,10 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>11252</v>
+        <v>5113</v>
       </c>
       <c r="C381" t="n">
-        <v>13.94878315925598</v>
+        <v>2.06085991859436</v>
       </c>
       <c r="D381" t="n">
         <v>1</v>
@@ -5781,10 +5781,10 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>3373</v>
+        <v>19374</v>
       </c>
       <c r="C382" t="n">
-        <v>3.00446605682373</v>
+        <v>33.59503054618835</v>
       </c>
       <c r="D382" t="n">
         <v>1</v>
@@ -5795,10 +5795,10 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>15927</v>
+        <v>20212</v>
       </c>
       <c r="C383" t="n">
-        <v>28.6977710723877</v>
+        <v>40.84259605407715</v>
       </c>
       <c r="D383" t="n">
         <v>1</v>
@@ -5809,10 +5809,10 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>6667</v>
+        <v>9252</v>
       </c>
       <c r="C384" t="n">
-        <v>7.392847061157227</v>
+        <v>8.95359468460083</v>
       </c>
       <c r="D384" t="n">
         <v>1</v>
@@ -5823,13 +5823,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>23548</v>
+        <v>1906</v>
       </c>
       <c r="C385" t="n">
-        <v>60.00294089317322</v>
+        <v>0.8900189399719238</v>
       </c>
       <c r="D385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -5837,10 +5837,10 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>9475</v>
+        <v>4621</v>
       </c>
       <c r="C386" t="n">
-        <v>11.30744481086731</v>
+        <v>2.286929845809937</v>
       </c>
       <c r="D386" t="n">
         <v>1</v>
@@ -5851,13 +5851,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>23598</v>
+        <v>4470</v>
       </c>
       <c r="C387" t="n">
-        <v>60.00114488601685</v>
+        <v>2.687897682189941</v>
       </c>
       <c r="D387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -5865,10 +5865,10 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>6480</v>
+        <v>9649</v>
       </c>
       <c r="C388" t="n">
-        <v>7.49738335609436</v>
+        <v>9.763243675231934</v>
       </c>
       <c r="D388" t="n">
         <v>1</v>
@@ -5879,13 +5879,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>21675</v>
+        <v>25387</v>
       </c>
       <c r="C389" t="n">
-        <v>46.02489447593689</v>
+        <v>60.00049448013306</v>
       </c>
       <c r="D389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -5893,13 +5893,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>24798</v>
+        <v>12007</v>
       </c>
       <c r="C390" t="n">
-        <v>60.00349473953247</v>
+        <v>13.79620456695557</v>
       </c>
       <c r="D390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -5907,10 +5907,10 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>4714</v>
+        <v>12388</v>
       </c>
       <c r="C391" t="n">
-        <v>4.958084344863892</v>
+        <v>13.89958143234253</v>
       </c>
       <c r="D391" t="n">
         <v>1</v>
@@ -5921,10 +5921,10 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>7277</v>
+        <v>8076</v>
       </c>
       <c r="C392" t="n">
-        <v>9.301941871643066</v>
+        <v>6.256377935409546</v>
       </c>
       <c r="D392" t="n">
         <v>1</v>
@@ -5935,10 +5935,10 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>4640</v>
+        <v>13788</v>
       </c>
       <c r="C393" t="n">
-        <v>4.624072313308716</v>
+        <v>15.16164970397949</v>
       </c>
       <c r="D393" t="n">
         <v>1</v>
@@ -5949,13 +5949,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>24962</v>
+        <v>3642</v>
       </c>
       <c r="C394" t="n">
-        <v>60.00246906280518</v>
+        <v>1.658358812332153</v>
       </c>
       <c r="D394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -5963,10 +5963,10 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>14219</v>
+        <v>7256</v>
       </c>
       <c r="C395" t="n">
-        <v>24.91501259803772</v>
+        <v>4.850375652313232</v>
       </c>
       <c r="D395" t="n">
         <v>1</v>
@@ -5977,10 +5977,10 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>6183</v>
+        <v>682</v>
       </c>
       <c r="C396" t="n">
-        <v>5.967267751693726</v>
+        <v>0.2005040645599365</v>
       </c>
       <c r="D396" t="n">
         <v>1</v>
@@ -5991,13 +5991,13 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>23337</v>
+        <v>6265</v>
       </c>
       <c r="C397" t="n">
-        <v>60.00511193275452</v>
+        <v>3.536361217498779</v>
       </c>
       <c r="D397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -6005,10 +6005,10 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>3852</v>
+        <v>3626</v>
       </c>
       <c r="C398" t="n">
-        <v>2.311614274978638</v>
+        <v>1.842355966567993</v>
       </c>
       <c r="D398" t="n">
         <v>1</v>
@@ -6019,10 +6019,10 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>4297</v>
+        <v>1688</v>
       </c>
       <c r="C399" t="n">
-        <v>4.403283357620239</v>
+        <v>0.6145164966583252</v>
       </c>
       <c r="D399" t="n">
         <v>1</v>
@@ -6033,10 +6033,10 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>10743</v>
+        <v>2388</v>
       </c>
       <c r="C400" t="n">
-        <v>15.40412473678589</v>
+        <v>0.9197437763214111</v>
       </c>
       <c r="D400" t="n">
         <v>1</v>
@@ -6047,13 +6047,13 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>24083</v>
+        <v>1836</v>
       </c>
       <c r="C401" t="n">
-        <v>60.00785446166992</v>
+        <v>0.562293529510498</v>
       </c>
       <c r="D401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6100,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2175</v>
+        <v>0.2425</v>
       </c>
     </row>
   </sheetData>
